--- a/experiment/nonconvex/MitsosBarton2006Ex323/compare/C-Estacionario/MitsosBarton2006Ex323_C-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/compare/C-Estacionario/MitsosBarton2006Ex323_C-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>179.08113208561247</v>
       </c>
       <c r="E2">
-        <v>0.0297355</v>
+        <v>0.0302112</v>
       </c>
       <c r="F2">
-        <v>0.03894</v>
+        <v>0.0613283</v>
       </c>
       <c r="G2">
-        <v>0.03206638846153846</v>
+        <v>0.04403823539823009</v>
       </c>
       <c r="H2">
         <v>6381</v>
